--- a/Referral/data/localization.xlsx
+++ b/Referral/data/localization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320052425\Desktop\Rest_API_Automation_Python\Referral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320052425\Desktop\Rest_API_Automation_Python\Referral\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD09572-2C01-40DD-A55B-D840742380B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A4955B-0EDB-419B-A8CE-A2F820646B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CB8B5040-33BA-4E9B-B8D1-883A405B4FB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>HEADER_TEXT</t>
   </si>
@@ -207,6 +207,40 @@
   </si>
   <si>
     <t>Recomandă o prietenă și oferă-i posibilitatea de a achiziționa un Philips Lumea la reducere!</t>
+  </si>
+  <si>
+    <t>Beveel Philips Lumea aan en geef je vrienden 10% korting!</t>
+  </si>
+  <si>
+    <t>Blij met je Lumea resultaten? Deel je ervaring met vrienden en geef ze via jouw persoonlijke link 10% korting op de aanschaf van een Philips Lumea Prestige (BRI947/00) IPL ontharingsapparaat! Klik op de onderstaande knop om jouw persoonlijke link te delen.</t>
+  </si>
+  <si>
+    <t>Hoe werkt het?</t>
+  </si>
+  <si>
+    <t>We gebruiken het emailadres waarmee je in de Lumea app ingelogd bent om een persoonlijke link te genereren. Als je niet ingelogd bent in de Lumea app vragen we je om je emailadres in te vullen om een persoonlijke link te kunnen genereren. Door op "deel met vrienden" te klikken kan je een bericht en jouw persoonlijke link delen via een op jouw telefoon geinstalleerde app. Na het delen met vrienden zal Philips je een email sturen met jouw persoonlijke link, zodat je deze ook later kan delen. In jouw persoonlijke link kunnen je vrienden een unieke kortingscode ontvangen, waarmee zij een Philips Lumea Prestige (BRI947/00) ontharingsapparaat met 10% korting kunnen kopen in de Philips Store. 
+Persoonlijke informatie
+Door deel te nemen aan het Lumea verwijzingsprogramma ga je ermee akkoord dat Philips je emailadres, voor- en achternaam, land en taal gebruikt om de content voor het Lumea verwijzingsprogramma te personaliseren en een unieke link te genereren. Meer details over jouw privacy kan je vinden de privacy sectie van de Lumea app en onderaan de Philips website.
+Algemene voorwaarden
+De kortingscodes hebben geen contante waarde, en kunnen niet worden ingewisseld voor contant geld or worden gecombineeerd met andere aanbiedingen. Met dit programma kan één coupon per bestelling en per account worden toegepast. Alle uitgegeven kortingscodes vervallen op 31 december 2022. Philips behoudt zich het recht voor om deze actie op elk moment te stoppen, maar dit heeft geen invloed op reeds uitgegeven kortingscodes. Om mee te doen met het Lumea verwijzingsprogramma moet je in Nederland wonen en minimaal 18 jaar oud zijn.</t>
+  </si>
+  <si>
+    <t>Verwijs een vriend(in)</t>
+  </si>
+  <si>
+    <t>Beveel Lumea aan!</t>
+  </si>
+  <si>
+    <t>Blij met de resultaten?</t>
+  </si>
+  <si>
+    <t>Blij met je Lumea resultaten? Deel je ervaring en geef je vrienden korting!</t>
+  </si>
+  <si>
+    <t>Deel je Lumea ervaring en geef je vrienden korting!</t>
+  </si>
+  <si>
+    <t>Beveel Lumea aan zodat jouw vrienden ook kunnen genieten van een langdurig gladde huid!</t>
   </si>
 </sst>
 </file>
@@ -279,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970D613-4954-40DA-B0E5-07C76FD239E9}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +668,7 @@
     <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -677,7 +714,9 @@
       <c r="D2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -692,7 +731,9 @@
       <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -707,22 +748,26 @@
       <c r="D4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -737,7 +782,9 @@
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -752,7 +799,9 @@
       <c r="D7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -767,7 +816,9 @@
       <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -782,7 +833,9 @@
       <c r="D9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -797,7 +850,9 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -812,7 +867,9 @@
       <c r="D11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -827,7 +884,9 @@
       <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -842,7 +901,9 @@
       <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -857,7 +918,9 @@
       <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -872,7 +935,9 @@
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -887,7 +952,9 @@
       <c r="D16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -902,7 +969,9 @@
       <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -917,7 +986,9 @@
       <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -932,7 +1003,9 @@
       <c r="D19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>

--- a/Referral/data/localization.xlsx
+++ b/Referral/data/localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320052425\Desktop\Rest_API_Automation_Python\Referral\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A4955B-0EDB-419B-A8CE-A2F820646B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5EB06-3C7D-4B34-BC07-028849945985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CB8B5040-33BA-4E9B-B8D1-883A405B4FB4}"/>
   </bookViews>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970D613-4954-40DA-B0E5-07C76FD239E9}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
